--- a/alterra/Выгрузка цен (4).xlsx
+++ b/alterra/Выгрузка цен (4).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,2976 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>_494-009042</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Пенополистирол 0,02х1х1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>75</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/01_sukhie_smesi_teploizolyatsiya_gipsokarton/teplo_i_zvukoizolyatsionnye_materialy/penopolistirol_penoplast/penopolistirol_0_02kh1kh1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>УТ-08409152</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Профиль потолочный направляющий ПН 28х27/3м/0,45 мм</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>104</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/01_sukhie_smesi_teploizolyatsiya_gipsokarton/profil_podvesnoy_potolok/profil_potolochnyy/profil_potolochnyy_napravlyayushchiy_pn_28kh27_3m_0_45_mm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>_841-001979</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Профиль потолочный направляющий ППН 20х18 3м; Gyproc Ультра</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>106</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/01_sukhie_smesi_teploizolyatsiya_gipsokarton/profil_podvesnoy_potolok/profil_potolochnyy/profil_potolochnyy_napravlyayushchiy_ppn_20kh18_3m_gyproc_ultra/</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>_41-0002733</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Пенополистирол 0,03х1х1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>112</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/01_sukhie_smesi_teploizolyatsiya_gipsokarton/teplo_i_zvukoizolyatsionnye_materialy/penopolistirol_penoplast/penopolistirol_0_03kh1kh1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>_422-021897</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Профиль потолочный направляющий ПН 28х27/3м/0,60 мм</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>137</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/01_sukhie_smesi_teploizolyatsiya_gipsokarton/profil_podvesnoy_potolok/profil_potolochnyy/profil_potolochnyy_napravlyayushchiy_pn_28kh27_3m_0_60_mm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>_1у-0019916</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Пенополистирол 0,02х1х2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>152</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/01_sukhie_smesi_teploizolyatsiya_gipsokarton/teplo_i_zvukoizolyatsionnye_materialy/penopolistirol_penoplast/penopolistirol_0_02kh1kh2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>_41-0002734</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Пенополистирол 0,05х1х1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>185</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/01_sukhie_smesi_teploizolyatsiya_gipsokarton/teplo_i_zvukoizolyatsionnye_materialy/penopolistirol_penoplast/penopolistirol_0_05kh1kh1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>УТ-08404473</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Профиль потолочный П60х27/3м/0,45 мм</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>191</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/01_sukhie_smesi_teploizolyatsiya_gipsokarton/profil_podvesnoy_potolok/profil_potolochnyy/profil_potolochnyy_p60kh27_3m_0_45_mm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>_1у-0019917</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Пенополистирол 0,03х1х2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>220</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/01_sukhie_smesi_teploizolyatsiya_gipsokarton/teplo_i_zvukoizolyatsionnye_materialy/penopolistirol_penoplast/penopolistirol_0_03kh1kh2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>_494-094641</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Штукатурка гипсовая Easy Band 5кг/108; Bergauf (Бергауф)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>243</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/01_sukhie_smesi_teploizolyatsiya_gipsokarton/sukhie_stroitelnye_smesi/shtukaturka/shtukaturka_gipsovaya/shtukaturka_gipsovaya_easy_band_5kg_108_bergauf_bergauf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>_422-021896</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Профиль потолочный П60х27/3м/0,60 мм</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>243</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/01_sukhie_smesi_teploizolyatsiya_gipsokarton/profil_podvesnoy_potolok/profil_potolochnyy/profil_potolochnyy_p60kh27_3m_0_60_mm_/</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>УТ-08456660</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Клей для керамогранита и природного камня Keramik Maximum plus 5кг; Bergauf (Бергауф)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>274</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/01_sukhie_smesi_teploizolyatsiya_gipsokarton/sukhie_stroitelnye_smesi/kley_dlya_plitki/kley_dlya_kafelnoy_plitki/kley_dlya_keramogranita_i_prirodnogo_kamnya_keramik_maximum_plus_5kg_bergauf_bergauf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>_1у-0011035</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Клей усиленный для керамической плитки Keramik Pro 5кг/108; Bergauf (Бергауф)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>274</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/01_sukhie_smesi_teploizolyatsiya_gipsokarton/sukhie_stroitelnye_smesi/kley_dlya_plitki/kley_dlya_kafelnoy_plitki/kley_usilennyy_dlya_keramicheskoy_plitki_keramik_pro_5kg_108_bergauf_bergauf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>_371-000175</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Штукатурка гипсовая Bau Putz Gips 5кг/108; Bergauf (Бергауф)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>278</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/01_sukhie_smesi_teploizolyatsiya_gipsokarton/sukhie_stroitelnye_smesi/shtukaturka/shtukaturka_gipsovaya/shtukaturka_gipsovaya_bau_putz_gips_5kg_108_bergauf_bergauf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>_22-0000812</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Затирка Kitt белая 2 кг; Bergauf (Бергауф)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>291</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/01_sukhie_smesi_teploizolyatsiya_gipsokarton/sukhie_stroitelnye_smesi/zatirka_dlya_shvov/zatirka_kitt_belaya_2_kg_bergauf_bergauf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>_494-089206</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Демпферная лента 100мм*10мм*20м; Мегаспан</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>292</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/01_sukhie_smesi_teploizolyatsiya_gipsokarton/lenty_setki_serpyanki/lenty_demfernye_zhguty/dempfernaya_lenta_100mm_10mm_20m_megaspan/</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>_41-0007695</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Шпаклевка универсальная гипсовая Fugen Gips 5кг/108; Bergauf (Бергауф)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>301</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/01_sukhie_smesi_teploizolyatsiya_gipsokarton/sukhie_stroitelnye_smesi/shpaklevka/shpaklevka_gipsovaya/shpaklevka_universalnaya_gipsovaya_fugen_gips_5kg_108_bergauf_bergauf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>УТ-08427146</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Ремонтный состав универсальный Easy Master 5 кг; Bergauf (Бергауф)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>308</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/01_sukhie_smesi_teploizolyatsiya_gipsokarton/sukhie_stroitelnye_smesi/remontnye_sostavy/remontnyy_sostav_universalnyy_easy_master_5_kg_bergauf_bergauf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>_37-0000091</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Затирка Kitt жасмин 2 кг; Bergauf (Бергауф)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>315</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/01_sukhie_smesi_teploizolyatsiya_gipsokarton/sukhie_stroitelnye_smesi/zatirka_dlya_shvov/zatirka_kitt_zhasmin_2_kg_bergauf_bergauf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>_22-0000813</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Затирка Kitt серая 2 кг; Bergauf (Бергауф)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>315</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/01_sukhie_smesi_teploizolyatsiya_gipsokarton/sukhie_stroitelnye_smesi/zatirka_dlya_shvov/zatirka_kitt_seraya_2_kg_bergauf_bergauf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>_37-0000088</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Затирка Kitt карамель 2 кг; Bergauf (Бергауф)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>320</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/01_sukhie_smesi_teploizolyatsiya_gipsokarton/sukhie_stroitelnye_smesi/zatirka_dlya_shvov/zatirka_kitt_karamel_2_kg_bergauf_bergauf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>_37-0000090</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Затирка Kitt бежевая 2 кг; Bergauf (Бергауф)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>321</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/01_sukhie_smesi_teploizolyatsiya_gipsokarton/sukhie_stroitelnye_smesi/zatirka_dlya_shvov/zatirka_kitt_bezhevaya_2_kg_bergauf_bergauf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>_41-0009956</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Затирка Kitt серебристо-серая 2 кг; Bergauf (Бергауф)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>322</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/01_sukhie_smesi_teploizolyatsiya_gipsokarton/sukhie_stroitelnye_smesi/zatirka_dlya_shvov/zatirka_kitt_serebristo_seraya_2_kg_bergauf_bergauf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>_41-0009961</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Затирка Kitt багама 2 кг; Bergauf (Бергауф)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>322</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/01_sukhie_smesi_teploizolyatsiya_gipsokarton/sukhie_stroitelnye_smesi/zatirka_dlya_shvov/zatirka_kitt_bagama_2_kg_bergauf_bergauf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>_422-011194</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Пенополистирол 0,10х1х1</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>340</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/01_sukhie_smesi_teploizolyatsiya_gipsokarton/teplo_i_zvukoizolyatsionnye_materialy/penopolistirol_penoplast/penopolistirol_0_10kh1kh1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>_422-028447</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Клей термостойкий Keramik Termo 5кг/108; Bergauf (Бергауф)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>350</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/01_sukhie_smesi_teploizolyatsiya_gipsokarton/sukhie_stroitelnye_smesi/kley_dlya_plitki/kley_termostoykiy/kley_termostoykiy_keramik_termo_5kg_108_bergauf_bergauf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>_1у-0019918</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Пенополистирол 0,05х1х2</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>368</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/01_sukhie_smesi_teploizolyatsiya_gipsokarton/teplo_i_zvukoizolyatsionnye_materialy/penopolistirol_penoplast/penopolistirol_0_05kh1kh2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>_422-021903</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ПС 100х50 Профиль перегородочный стоечный 3м/0,60мм</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>371</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/01_sukhie_smesi_teploizolyatsiya_gipsokarton/profil_podvesnoy_potolok/profil_stoechnyy/ps_100kh50_profil_peregorodochnyy_stoechnyy_3m_0_60mm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>_422-028449</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Шпаклевка финишная гипсовая Finish Gips 5кг/108; Bergauf (Бергауф)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>372</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/01_sukhie_smesi_teploizolyatsiya_gipsokarton/sukhie_stroitelnye_smesi/shpaklevka/shpaklevka_gipsovaya/shpaklevka_finishnaya_gipsovaya_finish_gips_5kg_108_bergauf_bergauf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>УТ-08423710</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Пескобетон ПБ-300 Praktik 25 кг/56; Bergauf (Бергауф)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>374</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/01_sukhie_smesi_teploizolyatsiya_gipsokarton/sukhie_stroitelnye_smesi/montazhno_kleevye_sukhie_smesi/peskobeton_pb_300_praktik_25_kg_56_bergauf_bergauf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>УТ-08425568</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Супер-клей универсальный 3гр; GHS325B A.D.M</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>21</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/02_lakokrasochnye_materialy/peny_germetiki_kleya/kley_kontaktnyy/super_kley_universalnyy_3gr_ghs325b_a_d_m/</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>УТ-08432155</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Супер-клей КОНТАКТ гель 1г пакет КМ120-П01 ГЛ; 23234</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>45</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/02_lakokrasochnye_materialy/peny_germetiki_kleya/kley_kontaktnyy/super_kley_kontakt_gel_1g_paket_km120_p01_gl_23234/</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>_1у-0018311</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Лента металлизированная 50ммх10м в и/у Klebabender</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>68</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/02_lakokrasochnye_materialy/skotch_plenki/skotch_spetsialnogo_naznacheniya/lenta_metallizirovannaya_50mmkh10m_v_i_u_klebabender/</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>_479-000903</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Уайт-спирит "Одуванчик" 0,5л</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>80</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/02_lakokrasochnye_materialy/rastvoriteli_ochistiteli/uayt_spirit_oduvanchik_0_5l/</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>_479-000900</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Керосин "Одуванчик" 0,5л</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>95</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/02_lakokrasochnye_materialy/rastvoriteli_ochistiteli/kerosin_oduvanchik_0_5l/</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>УТ-08407445</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>МС-177 серебрянка 0.5 л</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>105</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/02_lakokrasochnye_materialy/derevozashchita/olifa_kuzbasslak/ms_177_serebryanka_0_5_l/</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>_479-000897</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Бензин "Галоша" 0,5л</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>105</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/02_lakokrasochnye_materialy/rastvoriteli_ochistiteli/benzin_galosha_0_5l_/</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>_1у-0018027</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Кузбасслак 1л</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>110</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/02_lakokrasochnye_materialy/derevozashchita/olifa_kuzbasslak/kuzbasslak_1l/</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>_1у-0017882</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Лента малярная бумажная 48ммх20м Klebebander</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>115</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/02_lakokrasochnye_materialy/skotch_plenki/skotch_malyarnyy/lenta_malyarnaya_bumazhnaya_48mmkh20m_klebebander/</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>_1у-0022908</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Лента двусторонняя полипропиленовая 38ммх10м в и/у Klebebander</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>120</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/02_lakokrasochnye_materialy/skotch_plenki/skotch_dvustoronniy/lenta_dvustoronnyaya_polipropilenovaya_38mmkh10m_v_i_u_klebebander/</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>_1у-0020866</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Покрывало защитное строительное 4мх5м 4Walls</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>125</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/02_lakokrasochnye_materialy/skotch_plenki/plenka_ukryvnaya/pokryvalo_zashchitnoe_stroitelnoe_4mkh5m_4walls/</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>_74-0000034</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Лента двусторонняя зеркальная 12ммх10м белая Klebebander</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>125</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/02_lakokrasochnye_materialy/skotch_plenki/skotch_dvustoronniy/lenta_dvustoronnyaya_zerkalnaya_12mmkh10m_belaya_klebebander/</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>_479-000906</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Растворитель 646 "Одуванчик"0,5л</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>130</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/02_lakokrasochnye_materialy/rastvoriteli_ochistiteli/rastvoritel_646_oduvanchik_0_5l/</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>_494-035183</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Ацетон "Одуванчик"0,5л</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>135</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/02_lakokrasochnye_materialy/rastvoriteli_ochistiteli/atseton_oduvanchik_0_5l/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>_479-000909</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Растворитель 647 "Одуванчик"0,5л</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>145</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/02_lakokrasochnye_materialy/rastvoriteli_ochistiteli/rastvoritel_647_oduvanchik_0_5l/</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>_479-000911</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Растворитель 650 "Одуванчик"0,5л</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>150</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/02_lakokrasochnye_materialy/rastvoriteli_ochistiteli/rastvoritel_650_oduvanchik_0_5l/</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>_1у-0015123</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Лента двусторонняя монтажная Милен 19ммх5м белая вспененный полиэтилен</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>165</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/02_lakokrasochnye_materialy/skotch_plenki/skotch_dvustoronniy/lenta_dvustoronnyaya_montazhnaya_milen_19mmkh5m_belaya_vspenennyy_polietilen/</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>_1у-0017883</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Лента малярная бумажная 48ммх30м Klebebander</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>173</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/02_lakokrasochnye_materialy/skotch_plenki/skotch_malyarnyy/lenta_malyarnaya_bumazhnaya_48mmkh30m_klebebander/</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>УТ-08419673</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Герметик MasterTeks HomeMaster акриловый общестроительный 260мл белый; 9613080 / 9612900</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>178</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/02_lakokrasochnye_materialy/peny_germetiki_kleya/germetiki/germetik_masterteks_homemaster_akrilovyy_obshchestroitelnyy_260ml_belyy_9613080_9612900/</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>_494-082206</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Лента сигнальная 50ммх150м бело-красная; Альфапак</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>180</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/02_lakokrasochnye_materialy/skotch_plenki/skotch_spetsialnogo_naznacheniya/lenta_signalnaya_50mmkh150m_belo_krasnaya_alfapak/</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>_1у-0016770</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Клей ПВА Строительный УНИВЕРСАЛ 1кг; ТЕКС</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>190</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/02_lakokrasochnye_materialy/kley_pva/kley_pva_stroitelnyy_universal_1kg_teks/</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>УТ-08443549</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Грунтовка СТ-17 глубокого проникновения 1 л; ЦЕРЕЗИТ</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>202</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/02_lakokrasochnye_materialy/gruntovki/gruntovka_st_17_glubokogo_proniknoveniya_1_l_tserezit/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>_422-000801</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Очиститель пены XFLEX 500мл; 9412045</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>203</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/02_lakokrasochnye_materialy/peny_germetiki_kleya/ochistitel_dlya_peny/ochistitel_peny_xflex_500ml_9412045/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>_Б-00027958</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Средство санирующее Санатекс Универсал 0,5 л; ТЕКС</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>217</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/02_lakokrasochnye_materialy/derevozashchita/antiseptiki_propitki/sredstvo_saniruyushchee_sanateks_universal_0_5_l_teks/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>УТ-08378155</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Малярная клейкая лента в инд. упаковке Альфа 48мм х 40м, белая 1/36</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>223</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/02_lakokrasochnye_materialy/skotch_plenki/skotch_malyarnyy/malyarnaya_kleykaya_lenta_v_ind_upakovke_alfa_48mm_kh_40m_belaya_1_36/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>_1у-0022920</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Лента армированная 50ммх25м серая в и/у Klebebander</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>250</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/02_lakokrasochnye_materialy/skotch_plenki/skotch_spetsialnogo_naznacheniya/lenta_armirovannaya_50mmkh25m_seraya_v_i_u_klebebander/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>УТ-08423222</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Лак аэрозольный CORALINO 520мл глянцевый 200г; C10190</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>258</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/02_lakokrasochnye_materialy/kraska_aerozolnaya/lak_aerozolnyy_coralino_520ml_glyantsevyy_200g_c10190/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>УТ-08413616</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Морилка ВДАК 21 сосна 1 кг; РАДУГА</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>258</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/02_lakokrasochnye_materialy/derevozashchita/morilki/morilka_vdak_21_sosna_1_kg_raduga/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>УТ-08413615</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Морилка ВДАК 21 орех 1 кг; РАДУГА</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>258</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/02_lakokrasochnye_materialy/derevozashchita/morilki/morilka_vdak_21_orekh_1_kg_raduga/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>УТ-08413614</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Морилка ВДАК 21 махагон 1 кг; РАДУГА</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>258</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/02_lakokrasochnye_materialy/derevozashchita/morilki/morilka_vdak_21_makhagon_1_kg_raduga/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>УТ-08376122</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Сплиттер 2-WAY 5-1000МГц инд уп; Сигнал, 3124</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>204</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/03_elektrotovary/antenny_i_tv_komplektuyushchie/tv_komplektuyushchie_/splitter_2_way_5_1000mgts_ind_up_signal_3124/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>УТ-08376287</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Изолента ПВХ 19 мм 20 м черный; Safeline</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>98</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/03_elektrotovary/kabel_i_montazh/izolenta/izolenta_pvkh_19_mm_20_m_chernyy_safeline/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>УТ-08376286</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Изолента ПВХ 19 мм 20 м синий; Safeline</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>98</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/03_elektrotovary/kabel_i_montazh/izolenta/izolenta_pvkh_19_mm_20_m_siniy_safeline/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>УТ-08376309</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Кабель-канал 16х16 мм сосна; 2-й замок, Промрукав PR.025435</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>166</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/03_elektrotovary/kabel_i_montazh/kabel_kanaly_i_komplektuyushchie/kabel_kanaly/kabel_kanal_16kh16_mm_sosna_2_y_zamok_promrukav_pr_025435/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>УТ-08426900</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Батарейка алкалиновая ФОТОН LR6 BP8</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за упак</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>440</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/03_elektrotovary/elementy_pitaniya_i_zaryadnye_ustroystva/batareyki/batareyka_alkalinovaya_foton_lr6_bp8_/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>УТ-08426897</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Батарейка алкалиновая ФОТОН LR03 BP8</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за упак</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>440</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/03_elektrotovary/elementy_pitaniya_i_zaryadnye_ustroystva/batareyki/batareyka_alkalinovaya_foton_lr03_bp8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>УТ-08426899</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Батарейка алкалиновая ФОТОН LR6 BP12</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за упак</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>589</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/03_elektrotovary/elementy_pitaniya_i_zaryadnye_ustroystva/batareyki/batareyka_alkalinovaya_foton_lr6_bp12_/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>УТ-08426896</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Батарейка алкалиновая ФОТОН LR03 BP12</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за упак</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>589</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/03_elektrotovary/elementy_pitaniya_i_zaryadnye_ustroystva/batareyki/batareyka_alkalinovaya_foton_lr03_bp12_/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>60-0002147</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Удлинитель сетевой 4-й 5 м б/з 10 А 250 В; LUX, У4-0</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>705</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/03_elektrotovary/udliniteli_elektricheskie/udliniteli_bytovye/udlinitel_setevoy_4_y_5_m_b_z_10_a_250_v_lux_u4_0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>УТ-08426932</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Фонарь аккумуляторный светодиодный РЕКОРД PM-1200, черный</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>706</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/03_elektrotovary/istochniki_sveta/fonari/fonar_akkumulyatornyy_svetodiodnyy_rekord_pm_1200_chernyy/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>60-0002149</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Удлинитель сетевой 4-й 7 м б/з 10 А 250 В; LUX, У4-0</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>891</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/03_elektrotovary/udliniteli_elektricheskie/udliniteli_bytovye/udlinitel_setevoy_4_y_7_m_b_z_10_a_250_v_lux_u4_0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>60-0002156</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Удлинитель сетевой 2-й 10 м с/з 16 А 250 В; LUX, У2-Е</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>1371</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/03_elektrotovary/udliniteli_elektricheskie/udliniteli_bytovye/udlinitel_setevoy_2_y_10_m_s_z_16_a_250_v_lux_u2_e/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>УТ-08376175</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Звонок C27-2 беспроводной два динамика; ЭРА, Б0018969</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>1379</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/03_elektrotovary/zvonki_i_komplektuyushchie/zvonki/zvonok_c27_2_besprovodnoy_dva_dinamika_era_b0018969/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>УТ-08429716</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Корпус накладной КШН6Р-11 IP54 210x178х96мм Энергомера</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>1775</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/03_elektrotovary/oborudovanie_zashchity_i_avtomatizatsii/boksy_i_shchity_elektricheskie/korpus_nakladnoy_kshn6r_11_ip54_210x178kh96mm_energomera_/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>422-026367</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Удлинитель силовой на катушке 4-й 30 м с/з 6 А ПВС 3x0,75; LUX, К4-Е-30</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>3656</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/03_elektrotovary/udliniteli_elektricheskie/udliniteli_silovye/udlinitel_silovoy_na_katushke_4_y_30_m_s_z_6_a_pvs_3x0_75_lux_k4_e_30/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>УТ-08376111</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Разъем F RG-6 Сигнал; 2014</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>9</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/03_elektrotovary/antenny_i_tv_komplektuyushchie/tv_komplektuyushchie_/razem_f_rg_6_signal_2014/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>УТ-08432415</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Хомут кабельный КСС 3х150 нейлон черн. 100шт Fortisflex 49408</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за упак</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>103</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/03_elektrotovary/kabel_i_montazh/khomuty/khomut_kabelnyy_kss_3kh150_neylon_chern_100sht_fortisflex_49408/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>УТ-08432416</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Хомут кабельный КСС 3х150 нейлон бел. 100шт Fortisflex 49393</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за упак</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>103</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/03_elektrotovary/kabel_i_montazh/khomuty/khomut_kabelnyy_kss_3kh150_neylon_bel_100sht_fortisflex_49393/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>411-003722</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Выключатель Этюд о/у белый 1-кл; Schneider Electric, BA10-001B</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>156</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/03_elektrotovary/elektroustanovochnye_izdeliya_rozetki_vyklyuchateli/vyklyuchateli/vyklyuchatel_etyud_o_u_belyy_1_kl_schneider_electric_ba10_001b/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>411-003736</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Выключатель Этюд о/у кремовый 1-кл; Schneider Electric, BA10-001K</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>157</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/03_elektrotovary/elektroustanovochnye_izdeliya_rozetki_vyklyuchateli/vyklyuchateli/vyklyuchatel_etyud_o_u_kremovyy_1_kl_schneider_electric_ba10_001k/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>УТ-08376311</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Кабель-канал 20х10 мм дуб (бук); 2-й замок, Промрукав PR.025428</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>162</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/03_elektrotovary/kabel_i_montazh/kabel_kanaly_i_komplektuyushchie/kabel_kanaly/kabel_kanal_20kh10_mm_dub_buk_2_y_zamok_promrukav_pr_025428/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>УТ-08432413</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Хомут кабельный КСС 4х200 нейлон черн. 100шт Fortisflex 49411</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за упак</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>213</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/03_elektrotovary/kabel_i_montazh/khomuty/khomut_kabelnyy_kss_4kh200_neylon_chern_100sht_fortisflex_49411/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>УТ-08432414</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Хомут кабельный КСС 4х200 нейлон бел. 100шт Fortisflex 49397</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за упак</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>213</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/03_elektrotovary/kabel_i_montazh/khomuty/khomut_kabelnyy_kss_4kh200_neylon_bel_100sht_fortisflex_49397/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>411-003725</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Выключатель Этюд о/у белый 2-кл; Schneider Electric, BA10-002B</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>227</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/03_elektrotovary/elektroustanovochnye_izdeliya_rozetki_vyklyuchateli/vyklyuchateli/vyklyuchatel_etyud_o_u_belyy_2_kl_schneider_electric_ba10_002b/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>411-003735</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Выключатель Этюд о/у кремовый 1-кл с подсв; Schneider Electric, BA10-005K</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>250</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/03_elektrotovary/elektroustanovochnye_izdeliya_rozetki_vyklyuchateli/vyklyuchateli/vyklyuchatel_etyud_o_u_kremovyy_1_kl_s_podsv_schneider_electric_ba10_005k/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>411-003721</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Выключатель Этюд о/у белый 1-кл с подсв; Schneider Electric, BA10-005B</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>250</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/03_elektrotovary/elektroustanovochnye_izdeliya_rozetki_vyklyuchateli/vyklyuchateli/vyklyuchatel_etyud_o_u_belyy_1_kl_s_podsv_schneider_electric_ba10_005b/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>УТ-08421249</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Разъём РШ-ВШ 3-х контактный 32А 250В 2Р+РЕ ОУ черный, Витебск; 32-001</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>257</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/03_elektrotovary/elektricheskie_komplektuyushchie/razemy_dlya_plity/razyem_rsh_vsh_3_kh_kontaktnyy_32a_250v_2r_re_ou_chernyy_vitebsk_32_001/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>УТ-08432411</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Хомут кабельный КСС 5х200 нейлон бел. 100шт Fortisflex 49401</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за упак</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>267</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/03_elektrotovary/kabel_i_montazh/khomuty/khomut_kabelnyy_kss_5kh200_neylon_bel_100sht_fortisflex_49401/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>411-003719</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Выключатель Этюд о/у белый 1-кл IP44; Schneider Electric, BA10-041B</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>280</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/03_elektrotovary/elektroustanovochnye_izdeliya_rozetki_vyklyuchateli/vyklyuchateli/vyklyuchatel_etyud_o_u_belyy_1_kl_ip44_schneider_electric_ba10_041b/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ФормулаМ2Горный</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>411-003724</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Выключатель Этюд о/у белый 2-кл с подсв; Schneider Electric, BA10-006B</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Цена ФормулаМ2Горный за шт</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>281</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>https://gorniy.formulam2.ru//catalog/03_elektrotovary/elektroustanovochnye_izdeliya_rozetki_vyklyuchateli/vyklyuchateli/vyklyuchatel_etyud_o_u_belyy_2_kl_s_podsv_schneider_electric_ba10_006b/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
